--- a/AAII_Financials/Quarterly/EXCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXCL_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/EXCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>EXCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,62 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +748,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -754,8 +768,8 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -769,8 +783,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -783,8 +803,8 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -798,8 +818,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +837,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,26 +920,32 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,16 +989,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -957,25 +1011,31 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -986,17 +1046,23 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,16 +1074,18 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1028,17 +1096,23 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,8 +1140,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,8 +1175,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1115,17 +1201,23 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1245,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,16 +1280,22 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1202,25 +1306,31 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1231,17 +1341,23 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,16 +1490,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1376,25 +1516,31 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1405,17 +1551,23 @@
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,16 +1595,22 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1463,51 +1621,63 @@
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,8 +1704,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1561,8 +1735,14 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1770,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1805,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,8 +1840,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1665,11 +1863,11 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1677,13 +1875,19 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1697,17 +1901,23 @@
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,8 +1945,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1764,8 +1980,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +2015,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +2085,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1880,8 +2120,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,8 +2155,14 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1929,17 +2181,23 @@
       <c r="H54" s="3">
         <v>0</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,8 +2224,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1984,17 +2246,23 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2013,17 +2281,23 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2051,13 +2325,19 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -2071,17 +2351,23 @@
       <c r="H60" s="3">
         <v>0</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,8 +2395,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2138,8 +2430,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,16 +2535,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2245,17 +2561,23 @@
       <c r="H66" s="3">
         <v>0</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2725,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
         <v>-100</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
       <c r="G72" s="3">
         <v>0</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,8 +2865,14 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2519,17 +2891,23 @@
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,50 +2935,62 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2611,17 +3001,23 @@
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +3029,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +3060,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,8 +3235,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2827,17 +3261,23 @@
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3289,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3320,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,8 +3390,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2965,8 +3425,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,8 +3580,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3114,17 +3606,23 @@
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,8 +3650,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3172,13 +3676,19 @@
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>EXCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,66 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,11 +775,11 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -789,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -803,11 +813,11 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +940,8 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -935,8 +955,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,8 +1017,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1017,8 +1044,8 @@
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1026,8 +1053,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,8 +1082,8 @@
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1061,8 +1091,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1102,8 +1136,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1111,8 +1145,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,8 +1221,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1207,8 +1250,8 @@
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1216,8 +1259,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,8 +1335,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1312,8 +1364,8 @@
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1321,8 +1373,11 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1347,8 +1402,8 @@
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1356,8 +1411,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1522,8 +1592,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1531,8 +1601,11 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1557,8 +1630,8 @@
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1566,8 +1639,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,8 +1677,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1627,8 +1706,8 @@
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1636,48 +1715,54 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1792,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,8 +1942,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1869,8 +1968,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1881,8 +1980,11 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1907,8 +2009,8 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2056,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,8 +2284,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2187,8 +2313,8 @@
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
+      <c r="K54" s="3">
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2252,8 +2383,8 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2261,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2287,8 +2421,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2296,8 +2430,11 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2331,8 +2468,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2357,8 +2497,8 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2366,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,8 +2696,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2567,8 +2725,8 @@
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,8 +2902,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2743,11 +2917,11 @@
         <v>0</v>
       </c>
       <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
@@ -2757,8 +2931,8 @@
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,8 +3054,11 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2897,8 +3083,8 @@
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,48 +3130,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3007,8 +3202,8 @@
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3016,8 +3211,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3267,8 +3484,8 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3612,8 +3858,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3621,8 +3867,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3682,13 +3934,16 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
